--- a/medicine/Psychotrope/Cigaretière/Cigaretière.xlsx
+++ b/medicine/Psychotrope/Cigaretière/Cigaretière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cigareti%C3%A8re</t>
+          <t>Cigaretière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cigaretières (appelées aussi cigaretteuses) et cigarières sont les noms des personnes qui fabriquent les cigarettes et les cigares au sein des manufactures de tabacs en France[1].
-Majoritaires dans l'industrie du tabac, les ouvrières des manufactures représentent jusqu'à 91 % de la main-d'œuvre au début du XXe siècle[2].     
-Parmi ces ouvrières, 80 % d'entre elles sont syndiquées notamment au sein de la Société d'exploitation industrielle des tabacs et des allumettes (SEITA). Il existe une représentante syndicale pour chaque section de la manufacture[3]. Le syndicat, très puissant, permet l'ouverture d'un écosystème autour des ouvrières. Au sein de la manufacture de Nantes par exemple, la création d'une crèche, d'une société de fonds de secours, des cours du soir voient le jour.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cigaretières (appelées aussi cigaretteuses) et cigarières sont les noms des personnes qui fabriquent les cigarettes et les cigares au sein des manufactures de tabacs en France.
+Majoritaires dans l'industrie du tabac, les ouvrières des manufactures représentent jusqu'à 91 % de la main-d'œuvre au début du XXe siècle.     
+Parmi ces ouvrières, 80 % d'entre elles sont syndiquées notamment au sein de la Société d'exploitation industrielle des tabacs et des allumettes (SEITA). Il existe une représentante syndicale pour chaque section de la manufacture. Le syndicat, très puissant, permet l'ouverture d'un écosystème autour des ouvrières. Au sein de la manufacture de Nantes par exemple, la création d'une crèche, d'une société de fonds de secours, des cours du soir voient le jour.  
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cigareti%C3%A8re</t>
+          <t>Cigaretière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Différents types de métiers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1900, 80 métiers différents sont recensés au sein des manufactures qui produisent : cigares, scarferlatis, cigarettes, allumettes et tabac à mâcher. 
 Au sein de ces 80 métiers, les ouvrières les plus jeunes ou les plus âgées travaillent à la préparation du tabac, car ce sont les métiers qui demandent le moins de compétences. Pour cette seule préparation, est recensée une vingtaine de métiers.   
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cigareti%C3%A8re</t>
+          <t>Cigaretière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Le métier de cigaretières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cigaretières ou cigaretteuses ont au fil du temps effectué trois types de travaux : 
 Avant l'apparition des machines les ouvrières confectionnent les cigarettes à la main, à l'unité. Cela demande des qualités de dextérité, d'habileté et de vitesse. Pour les cigarettes les plus luxueuses, il faut ébarber aux ciseaux chaque cigarette.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cigareti%C3%A8re</t>
+          <t>Cigaretière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Le métier de cigarières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">A l'inverse des cigaretières, les cigarières se doivent de cumuler les qualités des cigaretières (habilité, force et dextérité dans les doigts) pour obtenir des cigares homogènes et bien calibrés. Par sa technicité et le luxe des produits fabriqués, c'est un métier très valorisé. Ce métier reste néanmoins artisanal jusque dans les années 1960.
 </t>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cigareti%C3%A8re</t>
+          <t>Cigaretière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Les conditions de travail</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ouvrières restent majoritaires en France avec jusqu'à 80 % de femmes. Elles sont souvent vues comme suspectes et surveillées par les chefs d'atelier souvent des hommes, anciens militaires reconvertis. Ceux-ci imposent alors surveillance et discipline au sein des équipes.
 Le travail est organisé en sections comme sur le modèle militaire. Les ouvrières sont syndicalisées essentiellement pour mieux se défendre face aux chefs d'ateliers qui ne connaissent pas le travail. Lors des journées de travail, des lectrices faisaient la lecture aux travailleuses afin de les distraire et surtout d'imposer le silence.
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cigareti%C3%A8re</t>
+          <t>Cigaretière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>La représentation des ouvrières</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cigaretières sont représentées par des cartes postales ou sur des albums institutionnels édités dans la première moitié du XXe siècle.
 </t>
